--- a/Image Model/Gaussian.xlsx
+++ b/Image Model/Gaussian.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\Biomedical-Optics-Laboratory-Segmentation-Code\Image Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,37 +193,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -251,36 +221,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -573,7 +513,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="A24:B26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1286,7 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <f>SUM(D8:D21)</f>
         <v>250</v>
       </c>
@@ -1376,18 +1316,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>40</formula>
       <formula>42</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>40</formula>
       <formula>42</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>42</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Image Model/Gaussian.xlsx
+++ b/Image Model/Gaussian.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
